--- a/docs/Decodifiche/96_dec_motivo_recupero.xlsx
+++ b/docs/Decodifiche/96_dec_motivo_recupero.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -53,13 +53,19 @@
     <t>Caso d'uso non previsto nel sistema centrale</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Indisponibilita' del sistema centrale</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
     <t>ALTRO</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -213,7 +219,24 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/96_dec_motivo_recupero.xlsx
+++ b/docs/Decodifiche/96_dec_motivo_recupero.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -59,13 +59,22 @@
     <t>Indisponibilita' del sistema centrale</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Inefficacia atto per duplicazione</t>
+  </si>
+  <si>
+    <t>1999-12-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
     <t>ALTRO</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -124,7 +133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -233,10 +242,27 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
